--- a/3 Beginner Videos/Vid_1 Unclassified.xlsx
+++ b/3 Beginner Videos/Vid_1 Unclassified.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iowa-my.sharepoint.com/personal/cjskalla_uiowa_edu/Documents/Documents/aerobictextreview/3 Beginner Videos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="905" documentId="11_F25DC773A252ABDACC1048EAE15952625BDE58EE" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6D4504A5-502A-4E54-9FDE-9BB53C972537}"/>
+  <xr:revisionPtr revIDLastSave="908" documentId="11_F25DC773A252ABDACC1048EAE15952625BDE58EE" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{93FC0CBE-3BDA-4C7F-A20D-C3D01C039B22}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13035" yWindow="10920" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="255">
   <si>
     <t>hey everybody it's your personal trainer coach Kozak here from HASFIT.</t>
   </si>
@@ -596,20 +596,10 @@
     <t>describing_body_understandable_to_novice</t>
   </si>
   <si>
-    <t>Unclassified</t>
-  </si>
-  <si>
-    <t>the only other
-equipment that you may want for this workout is a chair or a box</t>
-  </si>
-  <si>
     <t>not much left</t>
   </si>
   <si>
     <t>and three two one and zero okay we're going to rest that's the end of the first round</t>
-  </si>
-  <si>
-    <t>vs.</t>
   </si>
   <si>
     <t>we're going to drive off our heels and at the same time we're going to press the dumbbell straight up and back down</t>
@@ -926,6 +916,9 @@
   </si>
   <si>
     <t>no swinging because now all of a sudden all the other muscles are taking over</t>
+  </si>
+  <si>
+    <t>the only other equipment that you may want for this workout is a chair or a box</t>
   </si>
 </sst>
 </file>
@@ -1246,11 +1239,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,10 +1252,9 @@
     <col min="3" max="3" width="33.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="5" width="45.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>145</v>
       </c>
@@ -1278,14 +1270,8 @@
       <c r="E1" t="s">
         <v>147</v>
       </c>
-      <c r="F1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1296,11 +1282,8 @@
       <c r="E2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>113</v>
       </c>
@@ -1312,7 +1295,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>143</v>
       </c>
@@ -1320,21 +1303,21 @@
         <v>141</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1342,10 +1325,10 @@
         <v>142</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>114</v>
       </c>
@@ -1353,10 +1336,10 @@
         <v>125</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>132</v>
       </c>
@@ -1364,10 +1347,10 @@
         <v>138</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>144</v>
       </c>
@@ -1375,10 +1358,10 @@
         <v>135</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>91</v>
       </c>
@@ -1386,10 +1369,10 @@
         <v>136</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>139</v>
       </c>
@@ -1397,10 +1380,10 @@
         <v>68</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>137</v>
       </c>
@@ -1408,32 +1391,32 @@
         <v>134</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>127</v>
       </c>
@@ -1441,10 +1424,10 @@
         <v>120</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>129</v>
       </c>
@@ -1452,7 +1435,7 @@
         <v>117</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1460,10 +1443,10 @@
         <v>128</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1474,15 +1457,15 @@
         <v>96</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>60</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>202</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -1490,15 +1473,15 @@
         <v>64</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1506,7 +1489,7 @@
         <v>118</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>214</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1522,7 +1505,7 @@
         <v>59</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1530,7 +1513,7 @@
         <v>34</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1538,15 +1521,15 @@
         <v>126</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1554,7 +1537,7 @@
         <v>40</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1562,15 +1545,15 @@
         <v>36</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -1578,7 +1561,7 @@
         <v>116</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -1586,7 +1569,7 @@
         <v>115</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1594,7 +1577,7 @@
         <v>109</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1602,7 +1585,7 @@
         <v>107</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1610,7 +1593,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -1618,7 +1601,7 @@
         <v>5</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1626,7 +1609,7 @@
         <v>108</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1634,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1642,7 +1625,7 @@
         <v>8</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1650,41 +1633,41 @@
         <v>9</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="E41" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E42" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1692,23 +1675,23 @@
         <v>15</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1716,15 +1699,15 @@
         <v>26</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1732,7 +1715,7 @@
         <v>28</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1740,7 +1723,7 @@
         <v>29</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -1748,7 +1731,7 @@
         <v>30</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1756,7 +1739,7 @@
         <v>32</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -1764,15 +1747,15 @@
         <v>35</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1780,7 +1763,7 @@
         <v>38</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>176</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -1788,7 +1771,7 @@
         <v>39</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1796,7 +1779,7 @@
         <v>41</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1804,7 +1787,7 @@
         <v>43</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1812,7 +1795,7 @@
         <v>45</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1820,7 +1803,7 @@
         <v>46</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>33</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1828,15 +1811,15 @@
         <v>47</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1844,7 +1827,7 @@
         <v>51</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1852,7 +1835,7 @@
         <v>52</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1860,7 +1843,7 @@
         <v>53</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1868,7 +1851,7 @@
         <v>54</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1876,15 +1859,15 @@
         <v>56</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -1892,15 +1875,15 @@
         <v>57</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1908,23 +1891,23 @@
         <v>58</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1932,55 +1915,55 @@
         <v>65</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>49</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1988,15 +1971,15 @@
         <v>72</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2004,39 +1987,39 @@
         <v>73</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E86" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2044,7 +2027,7 @@
         <v>75</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2052,7 +2035,7 @@
         <v>76</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2060,15 +2043,15 @@
         <v>77</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>228</v>
+        <v>70</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2076,7 +2059,7 @@
         <v>79</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2084,15 +2067,15 @@
         <v>80</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2100,7 +2083,7 @@
         <v>82</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2108,7 +2091,7 @@
         <v>83</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2116,7 +2099,7 @@
         <v>84</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2124,7 +2107,7 @@
         <v>85</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2132,7 +2115,7 @@
         <v>86</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -2140,7 +2123,7 @@
         <v>87</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2148,15 +2131,15 @@
         <v>88</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>90</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2164,7 +2147,7 @@
         <v>92</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2172,7 +2155,7 @@
         <v>93</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2180,7 +2163,7 @@
         <v>94</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2188,7 +2171,7 @@
         <v>95</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -2196,7 +2179,7 @@
         <v>97</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -2204,7 +2187,7 @@
         <v>98</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2212,7 +2195,7 @@
         <v>99</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -2220,7 +2203,7 @@
         <v>100</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2228,7 +2211,7 @@
         <v>101</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -2236,7 +2219,7 @@
         <v>102</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -2244,7 +2227,7 @@
         <v>103</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2252,13 +2235,16 @@
         <v>104</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="E117" s="1" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="118" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
@@ -2277,7 +2263,7 @@
     </row>
     <row r="121" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/3 Beginner Videos/Vid_1 Unclassified.xlsx
+++ b/3 Beginner Videos/Vid_1 Unclassified.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="908" documentId="11_F25DC773A252ABDACC1048EAE15952625BDE58EE" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{93FC0CBE-3BDA-4C7F-A20D-C3D01C039B22}"/>
   <bookViews>
-    <workbookView xWindow="13035" yWindow="10920" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24630" yWindow="6765" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1242,8 +1242,8 @@
   <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
